--- a/ejercicio1/ejercicio1.xlsx
+++ b/ejercicio1/ejercicio1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\raices\ejercicio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C50AEF-85B6-4836-8B9F-1BCF9F94804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5B292-A793-4ACB-A55D-3A4814886CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9B82493B-48CC-4ECE-B3A9-CD54E9735952}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>SOLUCION EXACTA:</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>En biseccion se necesito de 5 iteraciones y el error fue aprox  0,0003%</t>
+  </si>
+  <si>
+    <t>COMPARACION ENTRE METODOS - APROXIMACION x2</t>
+  </si>
+  <si>
+    <t>En biseccion se necesito de 19 iteraciones y el error fue aprox  0,0001%</t>
+  </si>
+  <si>
+    <t>En biseccion se necesito de 2 iteraciones y el error fue aprox  0,000004%</t>
+  </si>
+  <si>
+    <t>En biseccion se necesito de 7 iteraciones y el error fue aprox  0,0000001%</t>
   </si>
 </sst>
 </file>
@@ -253,6 +265,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,9 +282,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,6 +1395,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353423</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>126162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EDAE84-C793-DDD0-E2C4-FD3665D247B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833437" y="11386344"/>
+          <a:ext cx="3687174" cy="2765381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202385</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>473947</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1534B64B-18EF-FE67-7109-125550A485A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5179198" y="11366500"/>
+          <a:ext cx="3581499" cy="2659063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>166462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462934</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>180137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5977B0-3B98-4883-DD10-1BE5D5403257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429751" y="11453587"/>
+          <a:ext cx="3336308" cy="2569550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1685,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8209D4-A324-49F0-9336-02BDE4B8DD02}">
   <dimension ref="A6:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G8"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,64 +1846,64 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>3.2082198019999999</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>7.4898387299999998</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="14" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
@@ -1767,36 +1911,36 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
@@ -2838,42 +2982,42 @@
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="18">
         <f>ABS($C$7-E36)/ABS($C$7)*100</f>
         <v>5.0917548544625671E-5</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="18"/>
+      <c r="E43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <f>ABS($F$7-N41)/ABS($F$7)*100</f>
         <v>1.733566142774358E-6</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="19"/>
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="47" spans="2:17" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B47" s="4"/>
@@ -3032,12 +3176,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:G8"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="I16:J18"/>
     <mergeCell ref="B42:G42"/>
@@ -3047,6 +3185,12 @@
     <mergeCell ref="F43:G44"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G18"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3057,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41ADB6B-D219-467E-A805-01CE87C2C812}">
   <dimension ref="B6:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3074,64 +3218,64 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>3.2082198019999999</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>7.4898387299999998</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="15" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
@@ -3152,23 +3296,23 @@
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
@@ -3192,20 +3336,20 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
@@ -3372,7 +3516,7 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="20">
@@ -3380,7 +3524,7 @@
         <v>7.9855611657297966E-8</v>
       </c>
       <c r="D34" s="20"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="21">
@@ -3390,10 +3534,10 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
@@ -3443,64 +3587,64 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>3.2082198019999999</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>7.4898387299999998</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="15" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
@@ -3509,10 +3653,10 @@
       <c r="C15" s="25"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
@@ -3523,35 +3667,35 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -3770,7 +3914,7 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="20">
@@ -3778,7 +3922,7 @@
         <v>3.260505181532558E-6</v>
       </c>
       <c r="D34" s="20"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="21">
@@ -3788,10 +3932,10 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
@@ -3824,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B6DEE-50FD-4CB9-97D5-BD81BBC974F2}">
-  <dimension ref="B6:O56"/>
+  <dimension ref="B6:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3843,64 +3987,64 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>3.2082198019999999</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>7.4898387299999998</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="14" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
@@ -3912,7 +4056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C55" s="26" t="s">
         <v>26</v>
       </c>
@@ -3929,7 +4073,7 @@
       <c r="N55" s="26"/>
       <c r="O55" s="26"/>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
@@ -3940,11 +4084,46 @@
       <c r="N56" s="26"/>
       <c r="O56" s="26"/>
     </row>
+    <row r="59" spans="2:15" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B59" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="H78" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="M78" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="M55:O56"/>
-    <mergeCell ref="C55:E56"/>
-    <mergeCell ref="H55:J56"/>
+  <mergeCells count="13">
     <mergeCell ref="B11:G12"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:B8"/>
@@ -3952,6 +4131,12 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="B10:G10"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="H78:J79"/>
+    <mergeCell ref="M55:O56"/>
+    <mergeCell ref="C55:E56"/>
+    <mergeCell ref="H55:J56"/>
+    <mergeCell ref="M78:O80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
